--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_16_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4280769.60927211</v>
+        <v>-4281000.667557368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960812</v>
+        <v>244259.5951960791</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.001034119964493</v>
+        <v>0.3044959808854522</v>
       </c>
       <c r="F11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="G11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="H11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="M11" t="n">
-        <v>1.024342858827076</v>
+        <v>1.024342858827083</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>2.011969354812777</v>
       </c>
       <c r="P11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.194957358863803</v>
+        <v>1.194957358863814</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>2.560932828026978</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7106304803175699</v>
+        <v>3.407168619396517</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="F14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="G14" t="n">
-        <v>3.40716861939677</v>
+        <v>0.3044959808855523</v>
       </c>
       <c r="H14" t="n">
-        <v>3.001034119964676</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,22 +1634,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="M14" t="n">
-        <v>1.024342858827254</v>
+        <v>1.02434285882714</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.011969354812948</v>
+        <v>2.011969354812834</v>
       </c>
       <c r="P14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.194957358863995</v>
+        <v>1.194957358863871</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.560932828027148</v>
+        <v>2.560932828027035</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7106304803175995</v>
+        <v>3.407168619396696</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.23494702192914</v>
+        <v>10.2349470219292</v>
       </c>
       <c r="F17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="G17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="H17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.21810304482784</v>
+        <v>10.2181030448279</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.24355089463131</v>
+        <v>15.2435508946308</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.312645425632752</v>
+        <v>9.31264542563224</v>
       </c>
       <c r="F20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="G20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="H20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.295801448531449</v>
+        <v>9.295801448530941</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.671404046571467</v>
+        <v>4.671404046570956</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
     </row>
     <row r="21">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.398541692879462</v>
+        <v>8.398541692879526</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.77414429091948</v>
+        <v>3.774144290919537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.34629113897938</v>
+        <v>14.34629113897932</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.415385669980822</v>
+        <v>8.415385669980765</v>
       </c>
       <c r="F26" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="G26" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="H26" t="n">
-        <v>26.91870214472959</v>
+        <v>26.91870214472954</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.398541692879522</v>
+        <v>8.398541692879462</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.774144290919537</v>
+        <v>3.774144290919423</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.91336731138875</v>
+        <v>13.91336731138847</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.982461842390194</v>
+        <v>7.98246184238991</v>
       </c>
       <c r="F29" t="n">
-        <v>38.25904950994443</v>
+        <v>38.25904950994864</v>
       </c>
       <c r="G29" t="n">
-        <v>38.25904950994443</v>
+        <v>38.25904950994864</v>
       </c>
       <c r="H29" t="n">
-        <v>26.48577831713897</v>
+        <v>26.48577831713868</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.965617865288891</v>
+        <v>7.965617865288596</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.341220463328909</v>
+        <v>3.341220463328568</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.75334512226715</v>
+        <v>30.75334512226686</v>
       </c>
     </row>
     <row r="30">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.538596375211512</v>
+        <v>2.538596375211455</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.11074322327141</v>
+        <v>13.11074322327136</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.179837754272853</v>
+        <v>7.179837754272796</v>
       </c>
       <c r="F35" t="n">
-        <v>51.37171202863087</v>
+        <v>51.37171202863061</v>
       </c>
       <c r="G35" t="n">
-        <v>51.37171202863087</v>
+        <v>51.37171202863061</v>
       </c>
       <c r="H35" t="n">
-        <v>25.68315422902162</v>
+        <v>25.68315422902157</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.16299377717155</v>
+        <v>7.162993777171494</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.538596375211569</v>
+        <v>2.538596375211455</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.95072103414981</v>
+        <v>29.95072103414975</v>
       </c>
     </row>
     <row r="36">
@@ -3512,10 +3512,10 @@
         <v>7.179837754272853</v>
       </c>
       <c r="F38" t="n">
-        <v>51.37171202863067</v>
+        <v>51.37171202863048</v>
       </c>
       <c r="G38" t="n">
-        <v>51.37171202863067</v>
+        <v>51.37171202863048</v>
       </c>
       <c r="H38" t="n">
         <v>25.68315422902162</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.162993777171437</v>
+        <v>7.16299377717155</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.538596375211398</v>
+        <v>2.538596375211512</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>7.960794862973898</v>
       </c>
       <c r="F41" t="n">
-        <v>38.61302815709975</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="G41" t="n">
-        <v>38.61302815709975</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="H41" t="n">
         <v>26.46411133772267</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.943950885872599</v>
+        <v>7.943950885872596</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.319553483912614</v>
+        <v>3.319553483912557</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.32462415956286</v>
+        <v>14.3246241595632</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.393718690564299</v>
+        <v>8.39371869056464</v>
       </c>
       <c r="F44" t="n">
-        <v>31.54024759701537</v>
+        <v>31.54024759701093</v>
       </c>
       <c r="G44" t="n">
-        <v>31.54024759701537</v>
+        <v>31.54024759701093</v>
       </c>
       <c r="H44" t="n">
-        <v>26.89703516531307</v>
+        <v>26.89703516531341</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.376874713462996</v>
+        <v>8.376874713463337</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.752477311503014</v>
+        <v>3.75247731150332</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.16460197044125</v>
+        <v>31.16460197044159</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.882480611181062</v>
+        <v>4.158704713121374</v>
       </c>
       <c r="C11" t="n">
-        <v>10.25557754438366</v>
+        <v>7.531801646323926</v>
       </c>
       <c r="D11" t="n">
-        <v>13.62867447758626</v>
+        <v>10.90489857952648</v>
       </c>
       <c r="E11" t="n">
-        <v>10.59732688166253</v>
+        <v>10.59732688166238</v>
       </c>
       <c r="F11" t="n">
-        <v>7.155742417625596</v>
+        <v>7.155742417625493</v>
       </c>
       <c r="G11" t="n">
-        <v>3.714157953588661</v>
+        <v>3.714157953588607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="I11" t="n">
-        <v>3.645670422754325</v>
+        <v>3.645670422754276</v>
       </c>
       <c r="J11" t="n">
-        <v>7.018767355956925</v>
+        <v>7.018767355956827</v>
       </c>
       <c r="K11" t="n">
-        <v>10.39186428915952</v>
+        <v>10.39186428915938</v>
       </c>
       <c r="L11" t="n">
-        <v>6.950279825122596</v>
+        <v>6.950279825122493</v>
       </c>
       <c r="M11" t="n">
-        <v>5.915590068731611</v>
+        <v>5.9155900687315</v>
       </c>
       <c r="N11" t="n">
-        <v>6.953477866393264</v>
+        <v>6.953477866393177</v>
       </c>
       <c r="O11" t="n">
-        <v>4.921185588804583</v>
+        <v>4.921185588804513</v>
       </c>
       <c r="P11" t="n">
-        <v>1.479601124767688</v>
+        <v>1.479601124767695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="R11" t="n">
-        <v>1.144330250297003</v>
+        <v>1.144330250296923</v>
       </c>
       <c r="S11" t="n">
-        <v>3.509383677978462</v>
+        <v>4.517427183499475</v>
       </c>
       <c r="T11" t="n">
-        <v>6.882480611181062</v>
+        <v>6.882480611180963</v>
       </c>
       <c r="U11" t="n">
-        <v>10.25557754438366</v>
+        <v>10.25557754438351</v>
       </c>
       <c r="V11" t="n">
-        <v>13.62867447758626</v>
+        <v>10.25557754438351</v>
       </c>
       <c r="W11" t="n">
-        <v>13.62867447758626</v>
+        <v>13.62867447758607</v>
       </c>
       <c r="X11" t="n">
-        <v>11.04187364119534</v>
+        <v>11.04187364119515</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.324065075218</v>
+        <v>7.60028917715826</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2725734895517253</v>
+        <v>0.2725734895517213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.882480611181476</v>
+        <v>4.158704713121672</v>
       </c>
       <c r="C14" t="n">
-        <v>10.25557754438428</v>
+        <v>7.531801646324402</v>
       </c>
       <c r="D14" t="n">
-        <v>13.62867447758708</v>
+        <v>10.90489857952713</v>
       </c>
       <c r="E14" t="n">
-        <v>10.18709001354994</v>
+        <v>7.463314115490064</v>
       </c>
       <c r="F14" t="n">
-        <v>6.745505549512798</v>
+        <v>4.021729651452997</v>
       </c>
       <c r="G14" t="n">
-        <v>3.303921085475657</v>
+        <v>3.714157953588803</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="I14" t="n">
-        <v>3.645670422755162</v>
+        <v>3.645670422754581</v>
       </c>
       <c r="J14" t="n">
-        <v>7.018767355957964</v>
+        <v>7.01876735595731</v>
       </c>
       <c r="K14" t="n">
-        <v>10.39186428916077</v>
+        <v>10.39186428916004</v>
       </c>
       <c r="L14" t="n">
-        <v>6.950279825123625</v>
+        <v>6.950279825122974</v>
       </c>
       <c r="M14" t="n">
-        <v>5.915590068732459</v>
+        <v>5.915590068731923</v>
       </c>
       <c r="N14" t="n">
-        <v>6.953477866393927</v>
+        <v>6.95347786639352</v>
       </c>
       <c r="O14" t="n">
-        <v>4.92118558880509</v>
+        <v>4.921185588804798</v>
       </c>
       <c r="P14" t="n">
-        <v>1.479601124767949</v>
+        <v>1.479601124767767</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="R14" t="n">
-        <v>1.144330250296832</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="S14" t="n">
-        <v>3.509383677978674</v>
+        <v>3.645670422754466</v>
       </c>
       <c r="T14" t="n">
-        <v>3.509383677978674</v>
+        <v>7.018767355957195</v>
       </c>
       <c r="U14" t="n">
-        <v>6.882480611181476</v>
+        <v>10.25557754438405</v>
       </c>
       <c r="V14" t="n">
-        <v>10.25557754438428</v>
+        <v>13.62867447758678</v>
       </c>
       <c r="W14" t="n">
-        <v>13.62867447758708</v>
+        <v>13.62867447758678</v>
       </c>
       <c r="X14" t="n">
-        <v>11.04187364119599</v>
+        <v>11.04187364119581</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.32406507521862</v>
+        <v>7.600289177158739</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2725734895517417</v>
+        <v>0.2725734895517357</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.00512210325081</v>
+        <v>28.61064238310884</v>
       </c>
       <c r="C17" t="n">
-        <v>44.61483634912656</v>
+        <v>44.61483634912732</v>
       </c>
       <c r="D17" t="n">
-        <v>60.61903031514518</v>
+        <v>60.61903031514542</v>
       </c>
       <c r="E17" t="n">
-        <v>50.28069998996423</v>
+        <v>50.28069998996442</v>
       </c>
       <c r="F17" t="n">
-        <v>33.95155605973423</v>
+        <v>33.95155605973435</v>
       </c>
       <c r="G17" t="n">
-        <v>17.62241212950422</v>
+        <v>17.62241212950428</v>
       </c>
       <c r="H17" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="I17" t="n">
-        <v>9.00228658418151</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="J17" t="n">
-        <v>9.00228658418151</v>
+        <v>2.443094021999451</v>
       </c>
       <c r="K17" t="n">
-        <v>17.26479212623951</v>
+        <v>11.6145844061711</v>
       </c>
       <c r="L17" t="n">
-        <v>6.943475919342762</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="M17" t="n">
-        <v>6.943475919342762</v>
+        <v>3.344282466375539</v>
       </c>
       <c r="N17" t="n">
-        <v>6.943475919342762</v>
+        <v>7.447283961377307</v>
       </c>
       <c r="O17" t="n">
-        <v>6.943475919342762</v>
+        <v>8.520547997452887</v>
       </c>
       <c r="P17" t="n">
-        <v>1.293268199274216</v>
+        <v>2.870340277384342</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.293268199274216</v>
+        <v>4.7524461894493</v>
       </c>
       <c r="R17" t="n">
-        <v>1.293268199274216</v>
+        <v>8.689316647534666</v>
       </c>
       <c r="S17" t="n">
-        <v>1.293268199274216</v>
+        <v>24.69351061355315</v>
       </c>
       <c r="T17" t="n">
-        <v>16.65082806565556</v>
+        <v>40.69770457957161</v>
       </c>
       <c r="U17" t="n">
-        <v>32.65502203167399</v>
+        <v>40.69770457957161</v>
       </c>
       <c r="V17" t="n">
-        <v>48.65921599769239</v>
+        <v>56.7018985455901</v>
       </c>
       <c r="W17" t="n">
-        <v>64.66340996371082</v>
+        <v>60.73914004597555</v>
       </c>
       <c r="X17" t="n">
-        <v>64.66340996371082</v>
+        <v>61.26893024356897</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.33426603348082</v>
+        <v>44.9397863133389</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="C18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="D18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="E18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="F18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="G18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="H18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="I18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="J18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="K18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="L18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="M18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="N18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="O18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="P18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="R18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="S18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="T18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="U18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="V18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="W18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="X18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="C19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="D19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="E19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="F19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="G19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="H19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="I19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="J19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="K19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="L19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="M19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="N19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="O19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="P19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="R19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="S19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="T19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="U19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="V19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="W19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="X19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.293268199274216</v>
+        <v>1.293268199274221</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.42595101593142</v>
+        <v>41.9257998131767</v>
       </c>
       <c r="C20" t="n">
-        <v>58.67965662930528</v>
+        <v>62.17950542655196</v>
       </c>
       <c r="D20" t="n">
-        <v>81.68590334980723</v>
+        <v>85.18575214705713</v>
       </c>
       <c r="E20" t="n">
-        <v>72.27919079866308</v>
+        <v>75.77903959591349</v>
       </c>
       <c r="F20" t="n">
-        <v>48.80582408046899</v>
+        <v>52.30567287771619</v>
       </c>
       <c r="G20" t="n">
-        <v>25.33245736227498</v>
+        <v>28.83230615951889</v>
       </c>
       <c r="H20" t="n">
-        <v>1.859090644080966</v>
+        <v>5.358939441321587</v>
       </c>
       <c r="I20" t="n">
-        <v>10.48118760932165</v>
+        <v>13.9810364065627</v>
       </c>
       <c r="J20" t="n">
-        <v>33.48743432982361</v>
+        <v>13.9810364065627</v>
       </c>
       <c r="K20" t="n">
-        <v>43.57200329432885</v>
+        <v>13.9810364065627</v>
       </c>
       <c r="L20" t="n">
-        <v>34.18230486146877</v>
+        <v>4.591337973703167</v>
       </c>
       <c r="M20" t="n">
-        <v>37.1463977089032</v>
+        <v>4.591337973703167</v>
       </c>
       <c r="N20" t="n">
-        <v>42.16247778423849</v>
+        <v>4.591337973703167</v>
       </c>
       <c r="O20" t="n">
-        <v>44.14882040064746</v>
+        <v>6.577680590112495</v>
       </c>
       <c r="P20" t="n">
-        <v>39.43023045461564</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.22541494701409</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="R20" t="n">
-        <v>47.07536398543289</v>
+        <v>6.709039682500594</v>
       </c>
       <c r="S20" t="n">
-        <v>70.08161070593481</v>
+        <v>29.71528640300577</v>
       </c>
       <c r="T20" t="n">
-        <v>70.08161070593481</v>
+        <v>52.72153312351094</v>
       </c>
       <c r="U20" t="n">
-        <v>70.08161070593481</v>
+        <v>75.72777984401611</v>
       </c>
       <c r="V20" t="n">
-        <v>77.29684389031868</v>
+        <v>80.79669268756673</v>
       </c>
       <c r="W20" t="n">
-        <v>77.29684389031868</v>
+        <v>80.79669268756673</v>
       </c>
       <c r="X20" t="n">
-        <v>77.29684389031868</v>
+        <v>80.79669268756673</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.82347717212467</v>
+        <v>57.32332596936943</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="C21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="D21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="E21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="F21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="G21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="H21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="I21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="J21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="K21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="L21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="M21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="N21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="O21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="P21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="R21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="S21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="T21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="U21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="V21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="W21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="X21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="C22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="D22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="E22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="F22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="G22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="H22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="I22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="J22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="K22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="L22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="M22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="N22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="O22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="P22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="R22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="S22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="T22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="U22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="V22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="W22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="X22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.859090644080966</v>
+        <v>1.859090644081226</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.17206381186301</v>
+        <v>78.75259086121162</v>
       </c>
       <c r="C23" t="n">
-        <v>70.3140565833323</v>
+        <v>99.89458363268085</v>
       </c>
       <c r="D23" t="n">
-        <v>101.1884628436914</v>
+        <v>101.1884628436919</v>
       </c>
       <c r="E23" t="n">
-        <v>92.6880732780543</v>
+        <v>92.68807327805425</v>
       </c>
       <c r="F23" t="n">
-        <v>61.18679151052125</v>
+        <v>61.1867915105212</v>
       </c>
       <c r="G23" t="n">
         <v>29.68550974298815</v>
@@ -5987,52 +5987,52 @@
         <v>12.00528563932477</v>
       </c>
       <c r="J23" t="n">
-        <v>42.87969189968391</v>
+        <v>42.87969189968389</v>
       </c>
       <c r="K23" t="n">
-        <v>53.85254802228458</v>
+        <v>42.87969189968389</v>
       </c>
       <c r="L23" t="n">
-        <v>45.36917257493163</v>
+        <v>34.39631645233084</v>
       </c>
       <c r="M23" t="n">
-        <v>49.2215525804619</v>
+        <v>34.39631645233084</v>
       </c>
       <c r="N23" t="n">
-        <v>55.12591981389266</v>
+        <v>40.3006836857615</v>
       </c>
       <c r="O23" t="n">
-        <v>58.00054958839696</v>
+        <v>43.17531346026584</v>
       </c>
       <c r="P23" t="n">
-        <v>54.1882826278722</v>
+        <v>39.36304649974045</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.87175427836384</v>
+        <v>39.36304649974045</v>
       </c>
       <c r="R23" t="n">
-        <v>57.87175427836384</v>
+        <v>39.36304649974045</v>
       </c>
       <c r="S23" t="n">
-        <v>88.74616053872298</v>
+        <v>70.23745276009959</v>
       </c>
       <c r="T23" t="n">
-        <v>95.16454875008228</v>
+        <v>70.23745276009959</v>
       </c>
       <c r="U23" t="n">
-        <v>95.16454875008228</v>
+        <v>101.1118590204587</v>
       </c>
       <c r="V23" t="n">
-        <v>95.16454875008228</v>
+        <v>124.7450757994309</v>
       </c>
       <c r="W23" t="n">
-        <v>95.16454875008228</v>
+        <v>124.7450757994309</v>
       </c>
       <c r="X23" t="n">
-        <v>95.16454875008228</v>
+        <v>124.7450757994309</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.66326698254923</v>
+        <v>93.24379403189783</v>
       </c>
     </row>
     <row r="24">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.46770621974116</v>
+        <v>70.3140565833324</v>
       </c>
       <c r="C26" t="n">
-        <v>82.60969899121039</v>
+        <v>70.3140565833324</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4841052515696</v>
+        <v>101.1884628436915</v>
       </c>
       <c r="E26" t="n">
-        <v>104.9837156859324</v>
+        <v>92.6880732780544</v>
       </c>
       <c r="F26" t="n">
-        <v>73.48243391839928</v>
+        <v>61.18679151052135</v>
       </c>
       <c r="G26" t="n">
-        <v>41.98115215086617</v>
+        <v>29.68550974298815</v>
       </c>
       <c r="H26" t="n">
-        <v>14.7905439238665</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="I26" t="n">
-        <v>14.7905439238665</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="J26" t="n">
-        <v>14.7905439238665</v>
+        <v>33.36930777634776</v>
       </c>
       <c r="K26" t="n">
-        <v>14.7905439238665</v>
+        <v>44.34216389894836</v>
       </c>
       <c r="L26" t="n">
-        <v>6.307168476513445</v>
+        <v>35.85878845159529</v>
       </c>
       <c r="M26" t="n">
-        <v>6.307168476513445</v>
+        <v>39.71116845712557</v>
       </c>
       <c r="N26" t="n">
-        <v>6.307168476513445</v>
+        <v>45.61553569055612</v>
       </c>
       <c r="O26" t="n">
-        <v>6.307168476513445</v>
+        <v>45.61553569055612</v>
       </c>
       <c r="P26" t="n">
-        <v>2.494901515988622</v>
+        <v>41.80326873003145</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.178373166482479</v>
+        <v>45.48674038052538</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9166093629967</v>
+        <v>51.22497657703578</v>
       </c>
       <c r="S26" t="n">
-        <v>19.1684087563544</v>
+        <v>51.22497657703578</v>
       </c>
       <c r="T26" t="n">
-        <v>50.0428150167136</v>
+        <v>51.22497657703578</v>
       </c>
       <c r="U26" t="n">
-        <v>50.0428150167136</v>
+        <v>82.09938283739491</v>
       </c>
       <c r="V26" t="n">
-        <v>80.9172212770728</v>
+        <v>112.9737890977541</v>
       </c>
       <c r="W26" t="n">
-        <v>107.4601911579606</v>
+        <v>113.9753855855293</v>
       </c>
       <c r="X26" t="n">
-        <v>107.4601911579606</v>
+        <v>116.3065415215517</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.95890939042744</v>
+        <v>84.80525975401859</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="C27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="D27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="E27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="F27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="G27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="H27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="I27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="J27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="K27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="L27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="M27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="N27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="O27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="P27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="R27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="S27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="T27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="U27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="V27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="W27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="X27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="C28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="D28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="E28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="F28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="G28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="H28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="I28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="J28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="K28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="L28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="M28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="N28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="O28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="P28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="R28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="S28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="T28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="U28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="V28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="W28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="X28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.494901515988622</v>
+        <v>2.494901515988618</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.35820205993635</v>
+        <v>107.918306692668</v>
       </c>
       <c r="C29" t="n">
-        <v>77.92878942072032</v>
+        <v>107.918306692668</v>
       </c>
       <c r="D29" t="n">
-        <v>115.168137273339</v>
+        <v>145.157654545287</v>
       </c>
       <c r="E29" t="n">
-        <v>107.105044503248</v>
+        <v>137.0945617751962</v>
       </c>
       <c r="F29" t="n">
-        <v>68.45953994774852</v>
+        <v>98.44905721969235</v>
       </c>
       <c r="G29" t="n">
-        <v>29.8140353922491</v>
+        <v>59.80355266418867</v>
       </c>
       <c r="H29" t="n">
-        <v>3.060723960795555</v>
+        <v>33.05024123273546</v>
       </c>
       <c r="I29" t="n">
-        <v>12.99970267344648</v>
+        <v>42.98921994538659</v>
       </c>
       <c r="J29" t="n">
-        <v>12.99970267344648</v>
+        <v>80.86567896023594</v>
       </c>
       <c r="K29" t="n">
-        <v>24.40115338536175</v>
+        <v>80.86567896023594</v>
       </c>
       <c r="L29" t="n">
-        <v>16.35507473355473</v>
+        <v>72.81960030842927</v>
       </c>
       <c r="M29" t="n">
-        <v>20.63604932839969</v>
+        <v>77.10057490327449</v>
       </c>
       <c r="N29" t="n">
-        <v>26.96901115114507</v>
+        <v>77.10057490327449</v>
       </c>
       <c r="O29" t="n">
-        <v>26.96901115114507</v>
+        <v>80.40379926709392</v>
       </c>
       <c r="P29" t="n">
-        <v>23.59404098616638</v>
+        <v>77.02882910211549</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.59404098616638</v>
+        <v>81.14089534192436</v>
       </c>
       <c r="R29" t="n">
-        <v>29.76087177199536</v>
+        <v>81.14089534192436</v>
       </c>
       <c r="S29" t="n">
-        <v>29.76087177199536</v>
+        <v>119.0173543567735</v>
       </c>
       <c r="T29" t="n">
-        <v>29.76087177199536</v>
+        <v>119.0173543567735</v>
       </c>
       <c r="U29" t="n">
-        <v>38.83672578309064</v>
+        <v>153.0361980397946</v>
       </c>
       <c r="V29" t="n">
-        <v>74.50452893685959</v>
+        <v>153.0361980397946</v>
       </c>
       <c r="W29" t="n">
-        <v>101.4760934070635</v>
+        <v>153.0361980397946</v>
       </c>
       <c r="X29" t="n">
-        <v>101.4760934070635</v>
+        <v>153.0361980397946</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.41210843507652</v>
+        <v>121.9722130678078</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="C30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="D30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="E30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="F30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="G30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="H30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="I30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="J30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="K30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="L30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="M30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="N30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="O30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="P30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="R30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="S30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="T30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="U30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="V30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="W30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="X30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="C31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="D31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="E31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="F31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="G31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="H31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="I31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="J31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="K31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="L31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="M31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="N31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="O31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="P31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="R31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="S31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="T31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="U31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="V31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="W31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="X31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.060723960795555</v>
+        <v>3.060723960795891</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.68678387315833</v>
+        <v>80.68678387315768</v>
       </c>
       <c r="C32" t="n">
-        <v>103.0519690811785</v>
+        <v>103.0519690811779</v>
       </c>
       <c r="D32" t="n">
-        <v>141.0859147810335</v>
+        <v>141.0859147810328</v>
       </c>
       <c r="E32" t="n">
-        <v>133.8335534130812</v>
+        <v>133.8335534130805</v>
       </c>
       <c r="F32" t="n">
         <v>81.94293520234316</v>
@@ -6695,55 +6695,55 @@
         <v>4.109736962290449</v>
       </c>
       <c r="I32" t="n">
-        <v>14.84331352217759</v>
+        <v>14.84331352217758</v>
       </c>
       <c r="J32" t="n">
-        <v>14.84331352217759</v>
+        <v>14.84331352217758</v>
       </c>
       <c r="K32" t="n">
         <v>27.03936208132908</v>
       </c>
       <c r="L32" t="n">
-        <v>19.80401483166097</v>
+        <v>19.8040148316609</v>
       </c>
       <c r="M32" t="n">
-        <v>19.80401483166097</v>
+        <v>24.87958727374215</v>
       </c>
       <c r="N32" t="n">
-        <v>19.80401483166097</v>
+        <v>32.00714694372388</v>
       </c>
       <c r="O32" t="n">
-        <v>19.80401483166097</v>
+        <v>32.00714694372388</v>
       </c>
       <c r="P32" t="n">
-        <v>17.23977606882106</v>
+        <v>29.44290818088403</v>
       </c>
       <c r="Q32" t="n">
-        <v>22.14644015586601</v>
+        <v>29.44290818088403</v>
       </c>
       <c r="R32" t="n">
-        <v>22.14644015586601</v>
+        <v>29.44290818088403</v>
       </c>
       <c r="S32" t="n">
-        <v>59.95464909756144</v>
+        <v>29.44290818088403</v>
       </c>
       <c r="T32" t="n">
-        <v>59.95464909756144</v>
+        <v>29.44290818088403</v>
       </c>
       <c r="U32" t="n">
-        <v>59.95464909756144</v>
+        <v>59.95464909756189</v>
       </c>
       <c r="V32" t="n">
-        <v>96.41705009856666</v>
+        <v>96.4170500985671</v>
       </c>
       <c r="W32" t="n">
-        <v>124.1832124160079</v>
+        <v>124.1832124160073</v>
       </c>
       <c r="X32" t="n">
-        <v>124.1832124160079</v>
+        <v>124.1832124160073</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.92995884615971</v>
+        <v>93.92995884615905</v>
       </c>
     </row>
     <row r="33">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127.5667195438253</v>
+        <v>141.0859147810335</v>
       </c>
       <c r="C35" t="n">
-        <v>148.3212620307015</v>
+        <v>141.0859147810335</v>
       </c>
       <c r="D35" t="n">
-        <v>148.3212620307015</v>
+        <v>141.0859147810335</v>
       </c>
       <c r="E35" t="n">
-        <v>141.0689006627492</v>
+        <v>133.8335534130812</v>
       </c>
       <c r="F35" t="n">
-        <v>89.1782824520109</v>
+        <v>81.94293520234319</v>
       </c>
       <c r="G35" t="n">
-        <v>37.28766424127264</v>
+        <v>30.05231699160519</v>
       </c>
       <c r="H35" t="n">
-        <v>11.3450842119587</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="I35" t="n">
-        <v>11.3450842119587</v>
+        <v>14.84331352217749</v>
       </c>
       <c r="J35" t="n">
-        <v>11.3450842119587</v>
+        <v>65.70130843052179</v>
       </c>
       <c r="K35" t="n">
-        <v>11.3450842119587</v>
+        <v>77.89735698967347</v>
       </c>
       <c r="L35" t="n">
-        <v>4.10973696229047</v>
+        <v>70.66200974000532</v>
       </c>
       <c r="M35" t="n">
-        <v>9.185309404371594</v>
+        <v>70.66200974000532</v>
       </c>
       <c r="N35" t="n">
-        <v>9.185309404371594</v>
+        <v>70.66200974000532</v>
       </c>
       <c r="O35" t="n">
-        <v>9.185309404371594</v>
+        <v>74.75983195106066</v>
       </c>
       <c r="P35" t="n">
-        <v>6.621070641531513</v>
+        <v>72.19559318822081</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.52773472857626</v>
+        <v>77.10225727526544</v>
       </c>
       <c r="R35" t="n">
-        <v>18.48916336164141</v>
+        <v>84.06368590833067</v>
       </c>
       <c r="S35" t="n">
-        <v>69.34715826998598</v>
+        <v>134.921680816675</v>
       </c>
       <c r="T35" t="n">
-        <v>120.2051531783305</v>
+        <v>134.921680816675</v>
       </c>
       <c r="U35" t="n">
-        <v>171.063148086675</v>
+        <v>148.1199423228769</v>
       </c>
       <c r="V35" t="n">
-        <v>171.063148086675</v>
+        <v>184.582343323883</v>
       </c>
       <c r="W35" t="n">
-        <v>171.063148086675</v>
+        <v>184.582343323883</v>
       </c>
       <c r="X35" t="n">
-        <v>171.063148086675</v>
+        <v>184.582343323883</v>
       </c>
       <c r="Y35" t="n">
-        <v>140.8098945168267</v>
+        <v>154.3290897540348</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="C36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="D36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="E36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="F36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="G36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="H36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="I36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="J36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="K36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="L36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="M36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="N36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="O36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="P36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="R36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="S36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="T36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="U36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="V36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="W36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="X36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="C37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="D37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="E37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="F37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="G37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="H37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="I37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="J37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="K37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="L37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="M37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="N37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="O37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="P37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="R37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="S37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="T37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="U37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="V37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="W37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="X37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.10973696229047</v>
+        <v>4.109736962290449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>115.0419238628787</v>
+        <v>80.68678387315687</v>
       </c>
       <c r="C38" t="n">
-        <v>137.4071090708989</v>
+        <v>103.051969081177</v>
       </c>
       <c r="D38" t="n">
-        <v>141.0859147810338</v>
+        <v>141.0859147810319</v>
       </c>
       <c r="E38" t="n">
-        <v>133.8335534130814</v>
+        <v>133.8335534130795</v>
       </c>
       <c r="F38" t="n">
-        <v>81.94293520234334</v>
+        <v>81.94293520234166</v>
       </c>
       <c r="G38" t="n">
-        <v>30.05231699160523</v>
+        <v>30.05231699160522</v>
       </c>
       <c r="H38" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="I38" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="J38" t="n">
-        <v>54.96773187063481</v>
+        <v>54.96773187063462</v>
       </c>
       <c r="K38" t="n">
-        <v>67.16378042978636</v>
+        <v>54.96773187063462</v>
       </c>
       <c r="L38" t="n">
-        <v>59.92843318011821</v>
+        <v>47.73238462096639</v>
       </c>
       <c r="M38" t="n">
-        <v>59.92843318011821</v>
+        <v>47.73238462096639</v>
       </c>
       <c r="N38" t="n">
-        <v>67.05599285009997</v>
+        <v>47.73238462096639</v>
       </c>
       <c r="O38" t="n">
-        <v>67.05599285009997</v>
+        <v>47.73238462096639</v>
       </c>
       <c r="P38" t="n">
-        <v>64.49175408726003</v>
+        <v>45.16814585812647</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.39841817430485</v>
+        <v>50.07480994517122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.35984680737039</v>
+        <v>50.07480994517122</v>
       </c>
       <c r="S38" t="n">
-        <v>127.2178417157148</v>
+        <v>50.07480994517122</v>
       </c>
       <c r="T38" t="n">
-        <v>127.2178417157148</v>
+        <v>92.86270172599326</v>
       </c>
       <c r="U38" t="n">
-        <v>127.2178417157148</v>
+        <v>92.86270172599326</v>
       </c>
       <c r="V38" t="n">
-        <v>127.2178417157148</v>
+        <v>92.86270172599326</v>
       </c>
       <c r="W38" t="n">
-        <v>154.9840040331549</v>
+        <v>120.6288640434334</v>
       </c>
       <c r="X38" t="n">
-        <v>158.5383524057284</v>
+        <v>124.1832124160066</v>
       </c>
       <c r="Y38" t="n">
-        <v>128.2850988358801</v>
+        <v>93.9299588461583</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="C39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="D39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="E39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="F39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="G39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="H39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="I39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="J39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="K39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="L39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="M39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="N39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="O39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="P39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="R39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="S39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="T39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="U39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="V39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="W39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="X39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="C40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="D40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="E40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="F40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="G40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="H40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="I40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="J40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="K40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="L40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="M40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="N40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="O40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="P40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="R40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="S40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="T40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="U40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="V40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="W40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="X40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.109736962290453</v>
+        <v>4.109736962290439</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>58.43180455389194</v>
+        <v>98.56903701148559</v>
       </c>
       <c r="C41" t="n">
-        <v>80.02384222429805</v>
+        <v>98.56903701148559</v>
       </c>
       <c r="D41" t="n">
-        <v>117.2846403865389</v>
+        <v>115.8677922676119</v>
       </c>
       <c r="E41" t="n">
-        <v>109.2434334542421</v>
+        <v>107.826585335315</v>
       </c>
       <c r="F41" t="n">
-        <v>70.24037470969685</v>
+        <v>68.82352659077105</v>
       </c>
       <c r="G41" t="n">
-        <v>31.23731596515165</v>
+        <v>29.82046784622714</v>
       </c>
       <c r="H41" t="n">
-        <v>4.505890371492386</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="I41" t="n">
-        <v>14.4663193937652</v>
+        <v>13.04947127484095</v>
       </c>
       <c r="J41" t="n">
-        <v>14.4663193937652</v>
+        <v>13.04947127484095</v>
       </c>
       <c r="K41" t="n">
-        <v>14.4663193937652</v>
+        <v>24.47237229637835</v>
       </c>
       <c r="L41" t="n">
-        <v>6.44212657975247</v>
+        <v>16.44817948236563</v>
       </c>
       <c r="M41" t="n">
-        <v>6.44212657975247</v>
+        <v>16.44817948236563</v>
       </c>
       <c r="N41" t="n">
-        <v>6.44212657975247</v>
+        <v>22.80259161473299</v>
       </c>
       <c r="O41" t="n">
-        <v>6.44212657975247</v>
+        <v>26.12726628817424</v>
       </c>
       <c r="P41" t="n">
-        <v>3.08904225256798</v>
+        <v>22.77418196098984</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.08904225256798</v>
+        <v>22.77418196098984</v>
       </c>
       <c r="R41" t="n">
-        <v>3.08904225256798</v>
+        <v>28.96246305644188</v>
       </c>
       <c r="S41" t="n">
-        <v>40.82365598221344</v>
+        <v>67.18936093196936</v>
       </c>
       <c r="T41" t="n">
-        <v>40.82365598221344</v>
+        <v>105.4162588074968</v>
       </c>
       <c r="U41" t="n">
-        <v>40.82365598221344</v>
+        <v>143.6431566830243</v>
       </c>
       <c r="V41" t="n">
-        <v>76.51290944560458</v>
+        <v>143.6431566830243</v>
       </c>
       <c r="W41" t="n">
-        <v>103.5059242254306</v>
+        <v>143.6431566830243</v>
       </c>
       <c r="X41" t="n">
-        <v>103.5059242254306</v>
+        <v>143.6431566830243</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.46382509123788</v>
+        <v>112.6010575488315</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="C42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="D42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="E42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="G42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="H42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="I42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="J42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="K42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="L42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="M42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="N42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="O42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="P42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="R42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="S42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="T42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="U42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="V42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="W42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="X42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="C43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="D43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="E43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="F43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="G43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="H43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="I43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="J43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="K43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="L43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="M43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="N43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="O43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="P43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="R43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="S43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="T43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="U43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="V43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="W43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="X43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.08904225256798</v>
+        <v>3.089042252567877</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.49982963583464</v>
+        <v>73.77270218591164</v>
       </c>
       <c r="C44" t="n">
-        <v>70.66327271692624</v>
+        <v>94.9361452670029</v>
       </c>
       <c r="D44" t="n">
-        <v>101.8881178379715</v>
+        <v>126.1609903880437</v>
       </c>
       <c r="E44" t="n">
-        <v>93.40961411012873</v>
+        <v>117.6824866602006</v>
       </c>
       <c r="F44" t="n">
-        <v>61.55077815354754</v>
+        <v>85.82365070362394</v>
       </c>
       <c r="G44" t="n">
-        <v>29.69194219696635</v>
+        <v>53.96481474704707</v>
       </c>
       <c r="H44" t="n">
-        <v>2.52321980776123</v>
+        <v>26.7960923578416</v>
       </c>
       <c r="I44" t="n">
-        <v>12.05505424071977</v>
+        <v>36.32792679080044</v>
       </c>
       <c r="J44" t="n">
-        <v>12.05505424071977</v>
+        <v>36.32792679080044</v>
       </c>
       <c r="K44" t="n">
-        <v>23.04936067294268</v>
+        <v>47.32223322302302</v>
       </c>
       <c r="L44" t="n">
-        <v>14.58787106338409</v>
+        <v>38.86074361346407</v>
       </c>
       <c r="M44" t="n">
-        <v>14.58787106338409</v>
+        <v>42.73457392861631</v>
       </c>
       <c r="N44" t="n">
-        <v>14.58787106338409</v>
+        <v>42.73457392861631</v>
       </c>
       <c r="O44" t="n">
-        <v>14.58787106338409</v>
+        <v>45.63065401274274</v>
       </c>
       <c r="P44" t="n">
-        <v>10.79748994065364</v>
+        <v>41.84027289001203</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.50241190076986</v>
+        <v>45.54519485012791</v>
       </c>
       <c r="R44" t="n">
-        <v>20.26209840690636</v>
+        <v>51.30488135626419</v>
       </c>
       <c r="S44" t="n">
-        <v>37.6592775869088</v>
+        <v>82.529726477305</v>
       </c>
       <c r="T44" t="n">
-        <v>37.6592775869088</v>
+        <v>113.7545715983458</v>
       </c>
       <c r="U44" t="n">
-        <v>37.6592775869088</v>
+        <v>119.7214154485427</v>
       </c>
       <c r="V44" t="n">
-        <v>68.88412270795402</v>
+        <v>119.7214154485427</v>
       </c>
       <c r="W44" t="n">
-        <v>95.44854289846558</v>
+        <v>119.7214154485427</v>
       </c>
       <c r="X44" t="n">
-        <v>95.44854289846558</v>
+        <v>119.7214154485427</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.96914696872646</v>
+        <v>88.24201951880376</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="C45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="D45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="E45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="F45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="G45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="I45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="J45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="K45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="L45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="M45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="N45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="O45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="P45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="R45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="S45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="T45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="U45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="V45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="W45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="X45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="C46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="D46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="E46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="F46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="G46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="H46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="I46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="J46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="K46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="L46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="M46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="N46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="O46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="P46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="R46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="S46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="T46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="U46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="V46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="W46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="X46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.52321980776123</v>
+        <v>2.523219807760874</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.8547583132889</v>
+        <v>15.85475831328895</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10.32998734372242</v>
+        <v>13.02652548280146</v>
       </c>
       <c r="F11" t="n">
-        <v>54.11572711864816</v>
+        <v>54.11572711864821</v>
       </c>
       <c r="G11" t="n">
-        <v>83.99136621122176</v>
+        <v>83.99136621122184</v>
       </c>
       <c r="H11" t="n">
-        <v>28.42716931903912</v>
+        <v>28.42716931903917</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.907008867189042</v>
+        <v>9.90700886718909</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.282611465229059</v>
+        <v>5.282611465229051</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.3912742632463</v>
+        <v>32.69473612416735</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.85475831328887</v>
+        <v>15.85475831328883</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.923852844290309</v>
+        <v>9.92385284429027</v>
       </c>
       <c r="F14" t="n">
-        <v>54.11572711864812</v>
+        <v>54.11572711864808</v>
       </c>
       <c r="G14" t="n">
-        <v>83.99136621122173</v>
+        <v>87.09403884973287</v>
       </c>
       <c r="H14" t="n">
-        <v>28.83330381847118</v>
+        <v>28.42716931903904</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.907008867189006</v>
+        <v>9.907008867188967</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.282611465229024</v>
+        <v>5.282611465228928</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.39127426324644</v>
+        <v>32.69473612416722</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>38.26096880535925</v>
       </c>
       <c r="G17" t="n">
-        <v>68.13660789793286</v>
+        <v>68.13660789793289</v>
       </c>
       <c r="H17" t="n">
         <v>12.57241100575021</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>30.26588664897849</v>
+        <v>30.26588664897473</v>
       </c>
       <c r="G20" t="n">
-        <v>60.1415257415521</v>
+        <v>60.14152574154836</v>
       </c>
       <c r="H20" t="n">
-        <v>4.577328849369451</v>
+        <v>4.577328849365685</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.844895654497634</v>
+        <v>8.844895654493868</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>21.42099099448086</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29663008705447</v>
+        <v>51.2966300870545</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>21.42099099448086</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29663008705447</v>
+        <v>51.2966300870545</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>13.91528660680358</v>
+        <v>13.91528660679909</v>
       </c>
       <c r="G29" t="n">
-        <v>43.7909256993772</v>
+        <v>43.79092569937274</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>29.87563909257361</v>
+        <v>29.87563909257364</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>29.8756390925734</v>
+        <v>29.87563909257364</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>29.87563909257358</v>
+        <v>29.87563909257382</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>13.53964098023197</v>
+        <v>13.53964098023325</v>
       </c>
       <c r="G41" t="n">
-        <v>43.4152800728056</v>
+        <v>43.41528007280689</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.04534536790674</v>
+        <v>21.04534536791153</v>
       </c>
       <c r="G44" t="n">
-        <v>50.92098446048038</v>
+        <v>50.92098446048516</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1610108.438251887</v>
+        <v>1610108.438251889</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1616074.503222373</v>
+        <v>1616074.503222374</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1614229.957020876</v>
+        <v>1614229.957020874</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26329,7 @@
         <v>123536.2909803212</v>
       </c>
       <c r="H2" t="n">
-        <v>123854.4952501452</v>
+        <v>123854.4952501453</v>
       </c>
       <c r="I2" t="n">
         <v>124164.0598074831</v>
@@ -26338,13 +26338,13 @@
         <v>124164.0598074831</v>
       </c>
       <c r="K2" t="n">
-        <v>124313.4233247978</v>
+        <v>124313.423324798</v>
       </c>
       <c r="L2" t="n">
         <v>124590.3375282732</v>
       </c>
       <c r="M2" t="n">
-        <v>124590.3375282733</v>
+        <v>124590.3375282732</v>
       </c>
       <c r="N2" t="n">
         <v>124590.3375282733</v>
@@ -26353,7 +26353,7 @@
         <v>124320.8986727666</v>
       </c>
       <c r="P2" t="n">
-        <v>124171.5351554519</v>
+        <v>124171.5351554518</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5973.823422334905</v>
+        <v>5973.823422334812</v>
       </c>
       <c r="H3" t="n">
-        <v>2646.14112717292</v>
+        <v>2646.141127174227</v>
       </c>
       <c r="I3" t="n">
-        <v>2831.251090378523</v>
+        <v>2831.251090377248</v>
       </c>
       <c r="J3" t="n">
-        <v>271126.1652263469</v>
+        <v>271126.165226347</v>
       </c>
       <c r="K3" t="n">
-        <v>2166.646449260808</v>
+        <v>2166.64644926212</v>
       </c>
       <c r="L3" t="n">
-        <v>6437.655693417069</v>
+        <v>6437.655693415642</v>
       </c>
       <c r="M3" t="n">
-        <v>1586.921325665236</v>
+        <v>1586.921325665659</v>
       </c>
       <c r="N3" t="n">
-        <v>717.8078045215898</v>
+        <v>717.807804521135</v>
       </c>
       <c r="O3" t="n">
-        <v>270501.3995393861</v>
+        <v>270501.3995393862</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,25 +26427,25 @@
         <v>542247.3791625969</v>
       </c>
       <c r="F4" t="n">
-        <v>542247.3791625968</v>
+        <v>542247.3791625969</v>
       </c>
       <c r="G4" t="n">
         <v>547210.2686102894</v>
       </c>
       <c r="H4" t="n">
-        <v>548688.9245413365</v>
+        <v>548688.9245413372</v>
       </c>
       <c r="I4" t="n">
         <v>550127.4327958077</v>
       </c>
       <c r="J4" t="n">
-        <v>550127.4327958077</v>
+        <v>550127.4327958078</v>
       </c>
       <c r="K4" t="n">
-        <v>550821.5066084617</v>
+        <v>550821.5066084621</v>
       </c>
       <c r="L4" t="n">
-        <v>552108.2927021447</v>
+        <v>552108.2927021448</v>
       </c>
       <c r="M4" t="n">
         <v>552108.2927021447</v>
@@ -26454,10 +26454,10 @@
         <v>552108.2927021447</v>
       </c>
       <c r="O4" t="n">
-        <v>550856.2436269711</v>
+        <v>550856.243626971</v>
       </c>
       <c r="P4" t="n">
-        <v>550162.1698143174</v>
+        <v>550162.1698143169</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29760.55650293889</v>
+        <v>29760.5565029389</v>
       </c>
       <c r="F5" t="n">
-        <v>29760.55650293889</v>
+        <v>29760.5565029389</v>
       </c>
       <c r="G5" t="n">
-        <v>30796.56836457212</v>
+        <v>30796.56836457213</v>
       </c>
       <c r="H5" t="n">
-        <v>31304.13039552429</v>
+        <v>31304.13039552453</v>
       </c>
       <c r="I5" t="n">
         <v>31862.77838857201</v>
       </c>
       <c r="J5" t="n">
-        <v>31862.77838857201</v>
+        <v>31862.77838857202</v>
       </c>
       <c r="K5" t="n">
-        <v>32329.198919887</v>
+        <v>32329.19891988728</v>
       </c>
       <c r="L5" t="n">
-        <v>33193.92460548706</v>
+        <v>33193.92460548707</v>
       </c>
       <c r="M5" t="n">
         <v>33193.92460548707</v>
       </c>
       <c r="N5" t="n">
-        <v>33193.92460548707</v>
+        <v>33193.92460548705</v>
       </c>
       <c r="O5" t="n">
-        <v>32352.54234292659</v>
+        <v>32352.54234292651</v>
       </c>
       <c r="P5" t="n">
-        <v>31886.12181161176</v>
+        <v>31886.12181161147</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-478053.4688380542</v>
+        <v>-478058.7427440734</v>
       </c>
       <c r="C6" t="n">
-        <v>-478053.4688380542</v>
+        <v>-478058.7427440734</v>
       </c>
       <c r="D6" t="n">
-        <v>-478053.4688380542</v>
+        <v>-478058.7427440734</v>
       </c>
       <c r="E6" t="n">
-        <v>-760814.3713473011</v>
+        <v>-760862.7880279785</v>
       </c>
       <c r="F6" t="n">
-        <v>-449541.1695621619</v>
+        <v>-449589.5862428396</v>
       </c>
       <c r="G6" t="n">
-        <v>-460444.3694168753</v>
+        <v>-460471.3956000137</v>
       </c>
       <c r="H6" t="n">
-        <v>-458784.7008138886</v>
+        <v>-458805.3629116326</v>
       </c>
       <c r="I6" t="n">
-        <v>-460657.4024672752</v>
+        <v>-460671.8732738691</v>
       </c>
       <c r="J6" t="n">
-        <v>-728952.3166032436</v>
+        <v>-728966.7874098389</v>
       </c>
       <c r="K6" t="n">
-        <v>-461003.9286528117</v>
+        <v>-461015.4121890625</v>
       </c>
       <c r="L6" t="n">
-        <v>-467149.5354727756</v>
+        <v>-467155.4807249537</v>
       </c>
       <c r="M6" t="n">
-        <v>-462298.8011050238</v>
+        <v>-462304.7463572036</v>
       </c>
       <c r="N6" t="n">
-        <v>-461429.6875838801</v>
+        <v>-461435.632836059</v>
       </c>
       <c r="O6" t="n">
-        <v>-729389.2868365173</v>
+        <v>-729400.6208658066</v>
       </c>
       <c r="P6" t="n">
-        <v>-457876.7564704772</v>
+        <v>-457891.0777701124</v>
       </c>
     </row>
   </sheetData>
@@ -26695,22 +26695,22 @@
         <v>338.9077065329337</v>
       </c>
       <c r="F2" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="G2" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="H2" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="I2" t="n">
         <v>343.8233423266399</v>
       </c>
       <c r="J2" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="K2" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="L2" t="n">
         <v>345.0588902423478</v>
@@ -26725,7 +26725,7 @@
         <v>344.2779331336467</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="F3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="G3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="H3" t="n">
         <v>48.70498487900818</v>
       </c>
       <c r="I3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.70498487900809</v>
       </c>
       <c r="J3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="K3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="L3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="M3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="N3" t="n">
-        <v>48.70498487900839</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="O3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="P3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="F4" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="G4" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="H4" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="I4" t="n">
         <v>31.18626894985772</v>
       </c>
       <c r="J4" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="K4" t="n">
-        <v>38.25904950994443</v>
+        <v>38.25904950994864</v>
       </c>
       <c r="L4" t="n">
         <v>51.37171202863061</v>
       </c>
       <c r="M4" t="n">
-        <v>51.37171202863087</v>
+        <v>51.37171202863061</v>
       </c>
       <c r="N4" t="n">
-        <v>51.37171202863067</v>
+        <v>51.37171202863048</v>
       </c>
       <c r="O4" t="n">
-        <v>38.61302815709975</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="P4" t="n">
-        <v>31.54024759701537</v>
+        <v>31.54024759701093</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.096074441757935</v>
+        <v>3.096074441757764</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9223015962963927</v>
+        <v>0.9223015962969612</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8972597556519872</v>
+        <v>0.8972597556514756</v>
       </c>
       <c r="J2" t="n">
         <v>338.9077065329337</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4329238275905325</v>
+        <v>0.4329238275908005</v>
       </c>
       <c r="L2" t="n">
-        <v>3.898698529875332</v>
+        <v>3.898698529874878</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9223015962963359</v>
+        <v>0.9223015962969612</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8972597556519872</v>
+        <v>0.8972597556514188</v>
       </c>
       <c r="O2" t="n">
-        <v>338.1267494242326</v>
+        <v>338.1267494242327</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.70498487900818</v>
+        <v>48.7049848790082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.75868387153093</v>
+        <v>12.75868387153109</v>
       </c>
       <c r="H4" t="n">
-        <v>7.072780560084376</v>
+        <v>7.072780560087534</v>
       </c>
       <c r="I4" t="n">
-        <v>7.947635898845647</v>
+        <v>7.947635898842393</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.072780560086656</v>
+        <v>7.072780560090919</v>
       </c>
       <c r="L4" t="n">
-        <v>13.11266251868618</v>
+        <v>13.11266251868197</v>
       </c>
       <c r="M4" t="n">
-        <v>3.407168619396828</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.096074441757935</v>
+        <v>3.096074441757764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9223015962963927</v>
+        <v>0.9223015962969612</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8972597556519872</v>
+        <v>0.8972597556514756</v>
       </c>
       <c r="O2" t="n">
         <v>338.9077065329337</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4329238275905325</v>
+        <v>0.4329238275908005</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.75868387153093</v>
+        <v>12.75868387153109</v>
       </c>
       <c r="P4" t="n">
-        <v>7.072780560084376</v>
+        <v>7.072780560087534</v>
       </c>
     </row>
   </sheetData>
@@ -28138,19 +28138,19 @@
         <v>338.9077065329337</v>
       </c>
       <c r="S11" t="n">
-        <v>285.8251907973562</v>
+        <v>286.8434165605088</v>
       </c>
       <c r="T11" t="n">
-        <v>228.9142175418992</v>
+        <v>227.8959917787466</v>
       </c>
       <c r="U11" t="n">
         <v>251.4343908948001</v>
       </c>
       <c r="V11" t="n">
-        <v>311.6353507799209</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>320.4194302582695</v>
       </c>
       <c r="X11" t="n">
         <v>338.9077065329337</v>
@@ -28202,7 +28202,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N12" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O12" t="n">
         <v>206.7934319889056</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="C14" t="n">
         <v>325.8749626920272</v>
       </c>
       <c r="D14" t="n">
-        <v>310.0479318921942</v>
+        <v>310.0479318921941</v>
       </c>
       <c r="E14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="F14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="G14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="H14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="I14" t="n">
-        <v>337.6240623366062</v>
+        <v>337.6240623366061</v>
       </c>
       <c r="J14" t="n">
-        <v>280.9885736848109</v>
+        <v>280.9885736848108</v>
       </c>
       <c r="K14" t="n">
         <v>336.1468178929047</v>
       </c>
       <c r="L14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="M14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="N14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="O14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="P14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="R14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.0271441483426</v>
       </c>
       <c r="S14" t="n">
-        <v>285.8251907973565</v>
+        <v>286.843416560509</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5070489225027</v>
+        <v>228.9142175418993</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4343908948003</v>
+        <v>251.2967275162388</v>
       </c>
       <c r="V14" t="n">
-        <v>311.6353507799212</v>
+        <v>311.6353507799211</v>
       </c>
       <c r="W14" t="n">
-        <v>320.4194302582697</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.9077065329336</v>
+        <v>338.9077065329337</v>
       </c>
     </row>
     <row r="15">
@@ -28439,7 +28439,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N15" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O15" t="n">
         <v>206.7934319889056</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="C17" t="n">
-        <v>335.2048791694747</v>
+        <v>338.6336465635582</v>
       </c>
       <c r="D17" t="n">
-        <v>322.8066157637251</v>
+        <v>322.8066157637252</v>
       </c>
       <c r="E17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="F17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="H17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="I17" t="n">
-        <v>342.0037809746915</v>
+        <v>334.2168937172094</v>
       </c>
       <c r="J17" t="n">
-        <v>277.5814050654141</v>
+        <v>278.7428452903891</v>
       </c>
       <c r="K17" t="n">
-        <v>341.0856144675059</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="L17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9320493917608</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8593350201442</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9196758877465</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="P17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.1026638917975</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="R17" t="n">
-        <v>338.0271441483426</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="S17" t="n">
-        <v>283.4362479411123</v>
+        <v>299.6021004320401</v>
       </c>
       <c r="T17" t="n">
-        <v>241.0197356562212</v>
+        <v>241.6729014134304</v>
       </c>
       <c r="U17" t="n">
-        <v>264.1930747663313</v>
+        <v>248.0272222754036</v>
       </c>
       <c r="V17" t="n">
-        <v>324.3940346514521</v>
+        <v>324.3940346514522</v>
       </c>
       <c r="W17" t="n">
-        <v>333.1781141298006</v>
+        <v>321.090283356434</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>342.0037809746914</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.0037809746915</v>
+        <v>342.0037809746914</v>
       </c>
     </row>
     <row r="18">
@@ -28676,7 +28676,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N18" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O18" t="n">
         <v>206.7934319889056</v>
@@ -28798,67 +28798,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="C20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8793963238095</v>
+        <v>329.8793963238127</v>
       </c>
       <c r="E20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="F20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="G20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="H20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="I20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="J20" t="n">
-        <v>300.8200381164262</v>
+        <v>277.5814050654141</v>
       </c>
       <c r="K20" t="n">
-        <v>342.9260825709879</v>
+        <v>332.739649273508</v>
       </c>
       <c r="L20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="M20" t="n">
-        <v>342.9260825709879</v>
+        <v>339.9320493917608</v>
       </c>
       <c r="N20" t="n">
-        <v>342.9260825709879</v>
+        <v>337.8593350201442</v>
       </c>
       <c r="O20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="P20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.9260825709879</v>
+        <v>340.1026638917975</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
       <c r="S20" t="n">
-        <v>306.6748809921244</v>
+        <v>306.6748809921276</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5070489225027</v>
+        <v>248.745681973518</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0272222754036</v>
+        <v>271.2658553264189</v>
       </c>
       <c r="V20" t="n">
-        <v>315.5162964881849</v>
+        <v>313.348296143909</v>
       </c>
       <c r="W20" t="n">
         <v>317.0122616388729</v>
@@ -28867,7 +28867,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.9260825709879</v>
+        <v>342.9260825709884</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>343.8233423266399</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8270322226551</v>
+        <v>307.9477119707884</v>
       </c>
       <c r="E23" t="n">
         <v>343.8233423266399</v>
@@ -29059,16 +29059,16 @@
         <v>343.8233423266399</v>
       </c>
       <c r="J23" t="n">
-        <v>308.7676740152718</v>
+        <v>308.7676740152719</v>
       </c>
       <c r="K23" t="n">
-        <v>343.8233423266399</v>
+        <v>332.739649273508</v>
       </c>
       <c r="L23" t="n">
         <v>343.8233423266399</v>
       </c>
       <c r="M23" t="n">
-        <v>343.8233423266399</v>
+        <v>339.9320493917609</v>
       </c>
       <c r="N23" t="n">
         <v>343.8233423266399</v>
@@ -29080,7 +29080,7 @@
         <v>343.8233423266399</v>
       </c>
       <c r="Q23" t="n">
-        <v>343.8233423266399</v>
+        <v>340.1026638917976</v>
       </c>
       <c r="R23" t="n">
         <v>338.0271441483426</v>
@@ -29089,13 +29089,13 @@
         <v>314.62251689097</v>
       </c>
       <c r="T23" t="n">
-        <v>231.9902693380171</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0272222754036</v>
+        <v>279.2134912252613</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>332.1001183009003</v>
       </c>
       <c r="W23" t="n">
         <v>317.0122616388729</v>
@@ -29147,13 +29147,13 @@
         <v>202.4042607608305</v>
       </c>
       <c r="M24" t="n">
-        <v>204.4235883642203</v>
+        <v>204.4235883642204</v>
       </c>
       <c r="N24" t="n">
         <v>186.183518943527</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7934319889056</v>
+        <v>206.7934319889057</v>
       </c>
       <c r="P24" t="n">
         <v>197.7035287307182</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8233423266398</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>337.8270322226552</v>
+        <v>337.8270322226551</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="I26" t="n">
         <v>334.2168937172094</v>
       </c>
       <c r="J26" t="n">
-        <v>277.5814050654141</v>
+        <v>308.7676740152718</v>
       </c>
       <c r="K26" t="n">
-        <v>332.739649273508</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9320493917608</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8593350201442</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="O26" t="n">
         <v>340.9196758877465</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="S26" t="n">
-        <v>290.7612978333928</v>
+        <v>283.4362479411123</v>
       </c>
       <c r="T26" t="n">
-        <v>256.6933178723605</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0272222754036</v>
+        <v>279.2134912252613</v>
       </c>
       <c r="V26" t="n">
-        <v>339.4144511103822</v>
+        <v>339.4144511103821</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8233423266398</v>
+        <v>318.0239752628884</v>
       </c>
       <c r="X26" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8233423266399</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8233423266398</v>
+        <v>343.8233423266399</v>
       </c>
     </row>
     <row r="27">
@@ -29387,7 +29387,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N27" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O27" t="n">
         <v>206.7934319889056</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="C29" t="n">
-        <v>344.2562661542304</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="E29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="F29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="G29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="H29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="I29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="J29" t="n">
-        <v>277.5814050654141</v>
+        <v>315.8404545753627</v>
       </c>
       <c r="K29" t="n">
-        <v>344.2562661542304</v>
+        <v>332.739649273508</v>
       </c>
       <c r="L29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="M29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="N29" t="n">
-        <v>344.2562661542304</v>
+        <v>337.8593350201442</v>
       </c>
       <c r="O29" t="n">
-        <v>340.9196758877465</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="P29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.1026638917975</v>
+        <v>344.2562661542307</v>
       </c>
       <c r="R29" t="n">
-        <v>344.2562661542304</v>
+        <v>338.0271441483426</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4362479411123</v>
+        <v>321.6952974510609</v>
       </c>
       <c r="T29" t="n">
         <v>225.5070489225027</v>
       </c>
       <c r="U29" t="n">
-        <v>257.1947515795403</v>
+        <v>282.3896906420915</v>
       </c>
       <c r="V29" t="n">
-        <v>344.2562661542304</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
-        <v>344.2562661542304</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542307</v>
       </c>
     </row>
     <row r="30">
@@ -29624,7 +29624,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N30" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O30" t="n">
         <v>206.7934319889056</v>
@@ -29779,10 +29779,10 @@
         <v>345.0588902423478</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9320493917608</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="N32" t="n">
-        <v>337.8593350201442</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="O32" t="n">
         <v>340.9196758877465</v>
@@ -29791,19 +29791,19 @@
         <v>345.0588902423478</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.0588902423478</v>
+        <v>340.1026638917975</v>
       </c>
       <c r="R32" t="n">
         <v>338.0271441483426</v>
       </c>
       <c r="S32" t="n">
-        <v>321.6263579832289</v>
+        <v>283.4362479411123</v>
       </c>
       <c r="T32" t="n">
         <v>225.5070489225027</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272222754036</v>
+        <v>278.8471625952802</v>
       </c>
       <c r="V32" t="n">
         <v>345.0588902423478</v>
@@ -29861,7 +29861,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N33" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O33" t="n">
         <v>206.7934319889056</v>
@@ -29986,7 +29986,7 @@
         <v>345.0588902423478</v>
       </c>
       <c r="C35" t="n">
-        <v>343.4319784028085</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
         <v>306.6407632727974</v>
@@ -30004,25 +30004,25 @@
         <v>345.0588902423478</v>
       </c>
       <c r="I35" t="n">
-        <v>334.2168937172094</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="J35" t="n">
-        <v>277.5814050654141</v>
+        <v>328.9531170940447</v>
       </c>
       <c r="K35" t="n">
-        <v>332.739649273508</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="L35" t="n">
         <v>345.0588902423478</v>
       </c>
       <c r="M35" t="n">
-        <v>345.0588902423478</v>
+        <v>339.9320493917608</v>
       </c>
       <c r="N35" t="n">
         <v>337.8593350201442</v>
       </c>
       <c r="O35" t="n">
-        <v>340.9196758877465</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="P35" t="n">
         <v>345.0588902423478</v>
@@ -30034,16 +30034,16 @@
         <v>345.0588902423478</v>
       </c>
       <c r="S35" t="n">
-        <v>334.8079599697432</v>
+        <v>334.8079599697429</v>
       </c>
       <c r="T35" t="n">
-        <v>276.8787609511335</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U35" t="n">
-        <v>299.3989343040345</v>
+        <v>261.3587995543954</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="W35" t="n">
         <v>317.0122616388729</v>
@@ -30098,7 +30098,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N36" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O36" t="n">
         <v>206.7934319889056</v>
@@ -30226,7 +30226,7 @@
         <v>345.0588902423478</v>
       </c>
       <c r="D38" t="n">
-        <v>310.35672863657</v>
+        <v>345.0588902423478</v>
       </c>
       <c r="E38" t="n">
         <v>345.0588902423478</v>
@@ -30244,22 +30244,22 @@
         <v>334.2168937172094</v>
       </c>
       <c r="J38" t="n">
-        <v>328.9531170940447</v>
+        <v>328.9531170940446</v>
       </c>
       <c r="K38" t="n">
-        <v>345.0588902423478</v>
+        <v>332.739649273508</v>
       </c>
       <c r="L38" t="n">
         <v>345.0588902423478</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9320493917606</v>
+        <v>339.9320493917608</v>
       </c>
       <c r="N38" t="n">
-        <v>345.0588902423478</v>
+        <v>337.8593350201442</v>
       </c>
       <c r="O38" t="n">
-        <v>340.9196758877463</v>
+        <v>340.9196758877465</v>
       </c>
       <c r="P38" t="n">
         <v>345.0588902423478</v>
@@ -30268,13 +30268,13 @@
         <v>345.0588902423478</v>
       </c>
       <c r="R38" t="n">
-        <v>345.0588902423478</v>
+        <v>338.0271441483426</v>
       </c>
       <c r="S38" t="n">
-        <v>334.8079599697429</v>
+        <v>283.4362479411123</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5070489225027</v>
+        <v>268.7271416304037</v>
       </c>
       <c r="U38" t="n">
         <v>248.0272222754036</v>
@@ -30320,31 +30320,31 @@
         <v>155.5468849568752</v>
       </c>
       <c r="I39" t="n">
-        <v>158.1169417330168</v>
+        <v>158.1169417330169</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2134633401379</v>
+        <v>196.213463340138</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0756267456876</v>
+        <v>207.0756267456877</v>
       </c>
       <c r="L39" t="n">
-        <v>202.4042607608304</v>
+        <v>202.4042607608305</v>
       </c>
       <c r="M39" t="n">
-        <v>204.4235883642202</v>
+        <v>204.4235883642203</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1835189435268</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7934319889055</v>
+        <v>206.7934319889056</v>
       </c>
       <c r="P39" t="n">
-        <v>197.7035287307181</v>
+        <v>197.7035287307182</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0976481735712</v>
+        <v>214.0976481735713</v>
       </c>
       <c r="R39" t="n">
         <v>230.2247810551467</v>
@@ -30402,7 +30402,7 @@
         <v>195.1074307969077</v>
       </c>
       <c r="J40" t="n">
-        <v>200.1580734881326</v>
+        <v>200.1580734881327</v>
       </c>
       <c r="K40" t="n">
         <v>199.4424509737802</v>
@@ -30411,19 +30411,19 @@
         <v>206.1298723551876</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9868570416001</v>
+        <v>211.9868570416002</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0488292565228</v>
+        <v>194.0488292565229</v>
       </c>
       <c r="O40" t="n">
         <v>212.5776929367229</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1855292219906</v>
+        <v>213.1855292219907</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.8411749311192</v>
+        <v>238.8411749311193</v>
       </c>
       <c r="R40" t="n">
         <v>270.9003880747743</v>
@@ -30460,10 +30460,10 @@
         <v>344.2779331336467</v>
       </c>
       <c r="C41" t="n">
-        <v>344.2779331336467</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>344.2779331336467</v>
+        <v>324.1142534305008</v>
       </c>
       <c r="E41" t="n">
         <v>344.2779331336467</v>
@@ -30484,7 +30484,7 @@
         <v>277.5814050654141</v>
       </c>
       <c r="K41" t="n">
-        <v>332.739649273508</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="L41" t="n">
         <v>344.2779331336467</v>
@@ -30493,10 +30493,10 @@
         <v>339.9320493917608</v>
       </c>
       <c r="N41" t="n">
-        <v>337.8593350201442</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="O41" t="n">
-        <v>340.9196758877465</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="P41" t="n">
         <v>344.2779331336467</v>
@@ -30505,22 +30505,22 @@
         <v>340.1026638917975</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0271441483426</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="S41" t="n">
-        <v>321.5520193851983</v>
+        <v>322.0492760982108</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5070489225027</v>
+        <v>264.1200770796011</v>
       </c>
       <c r="U41" t="n">
-        <v>248.0272222754036</v>
+        <v>286.6402504325021</v>
       </c>
       <c r="V41" t="n">
-        <v>344.2779331336467</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>344.2779331336467</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
         <v>341.4686393609607</v>
@@ -30572,7 +30572,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N42" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O42" t="n">
         <v>206.7934319889056</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="D44" t="n">
-        <v>338.1810108698128</v>
+        <v>338.1810108698083</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="J44" t="n">
         <v>277.5814050654141</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9320493917608</v>
+        <v>343.845009306056</v>
       </c>
       <c r="N44" t="n">
         <v>337.8593350201442</v>
       </c>
       <c r="O44" t="n">
-        <v>340.9196758877465</v>
+        <v>343.845009306056</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="Q44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="R44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
       <c r="S44" t="n">
-        <v>301.009156203741</v>
+        <v>314.9764955381232</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5070489225027</v>
+        <v>257.0472965195136</v>
       </c>
       <c r="U44" t="n">
-        <v>248.0272222754036</v>
+        <v>254.0543372756025</v>
       </c>
       <c r="V44" t="n">
-        <v>339.7684297575398</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8450093060563</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8450093060563</v>
+        <v>343.845009306056</v>
       </c>
     </row>
     <row r="45">
@@ -30809,7 +30809,7 @@
         <v>204.4235883642203</v>
       </c>
       <c r="N45" t="n">
-        <v>186.183518943527</v>
+        <v>186.1835189435269</v>
       </c>
       <c r="O45" t="n">
         <v>206.7934319889056</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H11" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I11" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J11" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K11" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L11" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M11" t="n">
-        <v>34.38057960255737</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N11" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O11" t="n">
-        <v>32.98991767249443</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P11" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.14408215418289</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S11" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I12" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J12" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K12" t="n">
-        <v>16.91671158764569</v>
+        <v>16.91671158764571</v>
       </c>
       <c r="L12" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M12" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N12" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O12" t="n">
         <v>24.92546523331657</v>
@@ -31862,16 +31862,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R12" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S12" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I13" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J13" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K13" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L13" t="n">
         <v>13.05772660182459</v>
@@ -31935,22 +31935,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P13" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R13" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S13" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H14" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I14" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J14" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K14" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L14" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M14" t="n">
-        <v>34.38057960255737</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N14" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O14" t="n">
-        <v>32.98991767249443</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P14" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.14408215418289</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R14" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S14" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I15" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J15" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K15" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L15" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M15" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N15" t="n">
-        <v>27.24676319188968</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O15" t="n">
         <v>24.92546523331657</v>
@@ -32096,19 +32096,19 @@
         <v>20.00488331756847</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.37273471621372</v>
+        <v>13.37273471621373</v>
       </c>
       <c r="R15" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S15" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I16" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J16" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K16" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L16" t="n">
         <v>13.05772660182459</v>
@@ -32172,22 +32172,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P16" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R16" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S16" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H17" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I17" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J17" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K17" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L17" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M17" t="n">
-        <v>34.38057960255736</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N17" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O17" t="n">
-        <v>32.98991767249441</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P17" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.14408215418291</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R17" t="n">
         <v>12.29935479962211</v>
       </c>
       <c r="S17" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I18" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J18" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K18" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L18" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M18" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N18" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O18" t="n">
         <v>24.92546523331657</v>
@@ -32336,16 +32336,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R18" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S18" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I19" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J19" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K19" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L19" t="n">
         <v>13.05772660182459</v>
@@ -32409,22 +32409,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P19" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R19" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S19" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>30.89854030670989</v>
       </c>
       <c r="M20" t="n">
-        <v>34.38057960255737</v>
+        <v>34.38057960255736</v>
       </c>
       <c r="N20" t="n">
         <v>34.93689332431609</v>
@@ -32491,7 +32491,7 @@
         <v>28.15613148475367</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.14408215418289</v>
+        <v>21.14408215418291</v>
       </c>
       <c r="R20" t="n">
         <v>12.2993547996221</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.195798934186967</v>
       </c>
       <c r="H23" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742277</v>
       </c>
       <c r="I23" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243054</v>
       </c>
       <c r="J23" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045111</v>
       </c>
       <c r="K23" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458542</v>
       </c>
       <c r="L23" t="n">
-        <v>30.89854030670989</v>
+        <v>30.89854030670983</v>
       </c>
       <c r="M23" t="n">
-        <v>34.38057960255737</v>
+        <v>34.3805796025573</v>
       </c>
       <c r="N23" t="n">
-        <v>34.93689332431609</v>
+        <v>34.93689332431602</v>
       </c>
       <c r="O23" t="n">
-        <v>32.98991767249443</v>
+        <v>32.98991767249437</v>
       </c>
       <c r="P23" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475362</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.14408215418289</v>
+        <v>21.14408215418285</v>
       </c>
       <c r="R23" t="n">
         <v>12.29935479962211</v>
       </c>
       <c r="S23" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785516</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034487</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.01566391473495736</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888099</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712979</v>
       </c>
       <c r="I24" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983147</v>
       </c>
       <c r="J24" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195409</v>
       </c>
       <c r="K24" t="n">
-        <v>16.9167115876457</v>
+        <v>16.91671158764566</v>
       </c>
       <c r="L24" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146506</v>
       </c>
       <c r="M24" t="n">
-        <v>26.54421675905946</v>
+        <v>26.5442167590594</v>
       </c>
       <c r="N24" t="n">
-        <v>27.24676319188968</v>
+        <v>27.24676319188964</v>
       </c>
       <c r="O24" t="n">
-        <v>24.92546523331657</v>
+        <v>24.92546523331652</v>
       </c>
       <c r="P24" t="n">
-        <v>20.00488331756847</v>
+        <v>20.00488331756844</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.37273471621373</v>
+        <v>13.3727347162137</v>
       </c>
       <c r="R24" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294705</v>
       </c>
       <c r="S24" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213199</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812115</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722769</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142613</v>
       </c>
       <c r="I25" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717357</v>
       </c>
       <c r="J25" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350885998</v>
       </c>
       <c r="K25" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333972</v>
       </c>
       <c r="L25" t="n">
-        <v>13.05772660182459</v>
+        <v>13.05772660182456</v>
       </c>
       <c r="M25" t="n">
-        <v>13.767541873258</v>
+        <v>13.76754187325797</v>
       </c>
       <c r="N25" t="n">
-        <v>13.44018049948107</v>
+        <v>13.44018049948104</v>
       </c>
       <c r="O25" t="n">
-        <v>12.41418204752163</v>
+        <v>12.41418204752161</v>
       </c>
       <c r="P25" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787415</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730221</v>
       </c>
       <c r="R25" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074982</v>
       </c>
       <c r="S25" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000958</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808819</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394243</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H26" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I26" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J26" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K26" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L26" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M26" t="n">
-        <v>34.38057960255736</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N26" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O26" t="n">
         <v>32.98991767249441</v>
       </c>
       <c r="P26" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.14408215418289</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S26" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H27" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I27" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J27" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K27" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L27" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M27" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N27" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O27" t="n">
         <v>24.92546523331657</v>
@@ -33047,16 +33047,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R27" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S27" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I28" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J28" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K28" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L28" t="n">
         <v>13.05772660182459</v>
@@ -33120,22 +33120,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P28" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R28" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S28" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H29" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I29" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J29" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K29" t="n">
         <v>24.90635867458548</v>
       </c>
       <c r="L29" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M29" t="n">
-        <v>34.38057960255737</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N29" t="n">
         <v>34.93689332431609</v>
       </c>
       <c r="O29" t="n">
-        <v>32.98991767249441</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P29" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.14408215418291</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R29" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S29" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H30" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I30" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J30" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K30" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L30" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M30" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N30" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O30" t="n">
         <v>24.92546523331657</v>
@@ -33284,16 +33284,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R30" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S30" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I31" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J31" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K31" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L31" t="n">
         <v>13.05772660182459</v>
@@ -33357,22 +33357,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P31" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R31" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S31" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H32" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I32" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J32" t="n">
         <v>16.61818979045114</v>
       </c>
       <c r="K32" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L32" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M32" t="n">
-        <v>34.38057960255736</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N32" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O32" t="n">
         <v>32.98991767249441</v>
       </c>
       <c r="P32" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.14408215418289</v>
+        <v>21.14408215418291</v>
       </c>
       <c r="R32" t="n">
         <v>12.29935479962211</v>
       </c>
       <c r="S32" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H33" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I33" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J33" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K33" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L33" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M33" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N33" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O33" t="n">
         <v>24.92546523331657</v>
@@ -33521,16 +33521,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R33" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S33" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I34" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J34" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K34" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L34" t="n">
         <v>13.05772660182459</v>
@@ -33594,22 +33594,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P34" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R34" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S34" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H35" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I35" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J35" t="n">
-        <v>16.61818979045114</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K35" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L35" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M35" t="n">
-        <v>34.38057960255737</v>
+        <v>34.38057960255736</v>
       </c>
       <c r="N35" t="n">
         <v>34.93689332431609</v>
       </c>
       <c r="O35" t="n">
-        <v>32.98991767249441</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P35" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.14408215418289</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R35" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S35" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,28 +33725,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H36" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I36" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J36" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K36" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L36" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M36" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N36" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O36" t="n">
         <v>24.92546523331657</v>
@@ -33758,16 +33758,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R36" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S36" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I37" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J37" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K37" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L37" t="n">
         <v>13.05772660182459</v>
@@ -33831,22 +33831,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P37" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R37" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S37" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1957989341869683</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H38" t="n">
-        <v>2.005225834742289</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I38" t="n">
-        <v>7.548538410243101</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J38" t="n">
-        <v>16.61818979045121</v>
+        <v>16.61818979045115</v>
       </c>
       <c r="K38" t="n">
-        <v>24.90635867458558</v>
+        <v>24.90635867458548</v>
       </c>
       <c r="L38" t="n">
-        <v>30.89854030671002</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M38" t="n">
-        <v>34.38057960255753</v>
+        <v>34.38057960255736</v>
       </c>
       <c r="N38" t="n">
-        <v>34.93689332431624</v>
+        <v>34.93689332431609</v>
       </c>
       <c r="O38" t="n">
-        <v>32.98991767249458</v>
+        <v>32.98991767249441</v>
       </c>
       <c r="P38" t="n">
-        <v>28.15613148475379</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.14408215418299</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R38" t="n">
-        <v>12.29935479962216</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S38" t="n">
-        <v>4.461768212785544</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T38" t="n">
-        <v>0.857109834403454</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01566391473495746</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1047616655888105</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H39" t="n">
-        <v>1.011777138712986</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I39" t="n">
-        <v>3.606925766983169</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J39" t="n">
-        <v>9.897679993195471</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K39" t="n">
-        <v>16.91671158764578</v>
+        <v>16.91671158764569</v>
       </c>
       <c r="L39" t="n">
-        <v>22.7466063814652</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M39" t="n">
-        <v>26.54421675905957</v>
+        <v>26.54421675905945</v>
       </c>
       <c r="N39" t="n">
-        <v>27.24676319188981</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O39" t="n">
-        <v>24.92546523331669</v>
+        <v>24.92546523331657</v>
       </c>
       <c r="P39" t="n">
-        <v>20.00488331756856</v>
+        <v>20.00488331756847</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.37273471621378</v>
+        <v>13.37273471621373</v>
       </c>
       <c r="R39" t="n">
-        <v>6.504412886294746</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S39" t="n">
-        <v>1.945901990213212</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4222630292812141</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006892214841369115</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08782866125722824</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7808766428142662</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I40" t="n">
-        <v>2.641247376717374</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J40" t="n">
-        <v>6.209486350886036</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K40" t="n">
-        <v>10.20409355333979</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L40" t="n">
-        <v>13.05772660182464</v>
+        <v>13.05772660182459</v>
       </c>
       <c r="M40" t="n">
-        <v>13.76754187325806</v>
+        <v>13.767541873258</v>
       </c>
       <c r="N40" t="n">
-        <v>13.44018049948113</v>
+        <v>13.44018049948107</v>
       </c>
       <c r="O40" t="n">
-        <v>12.41418204752168</v>
+        <v>12.41418204752163</v>
       </c>
       <c r="P40" t="n">
-        <v>10.62247735787422</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.354452716730267</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R40" t="n">
-        <v>3.949095987075007</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S40" t="n">
-        <v>1.530614033000968</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3752679162808842</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004790654250394273</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H41" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I41" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J41" t="n">
         <v>16.61818979045114</v>
       </c>
       <c r="K41" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L41" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M41" t="n">
         <v>34.38057960255736</v>
       </c>
       <c r="N41" t="n">
-        <v>34.93689332431609</v>
+        <v>34.9368933243161</v>
       </c>
       <c r="O41" t="n">
-        <v>32.98991767249441</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P41" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q41" t="n">
         <v>21.14408215418291</v>
@@ -34156,13 +34156,13 @@
         <v>12.29935479962211</v>
       </c>
       <c r="S41" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H42" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I42" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J42" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K42" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L42" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M42" t="n">
-        <v>26.54421675905945</v>
+        <v>26.54421675905947</v>
       </c>
       <c r="N42" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O42" t="n">
         <v>24.92546523331657</v>
@@ -34232,16 +34232,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R42" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S42" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I43" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J43" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K43" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L43" t="n">
         <v>13.05772660182459</v>
@@ -34305,22 +34305,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P43" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R43" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S43" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1957989341869674</v>
+        <v>0.1957989341869675</v>
       </c>
       <c r="H44" t="n">
-        <v>2.00522583474228</v>
+        <v>2.005225834742281</v>
       </c>
       <c r="I44" t="n">
-        <v>7.548538410243069</v>
+        <v>7.548538410243071</v>
       </c>
       <c r="J44" t="n">
         <v>16.61818979045114</v>
       </c>
       <c r="K44" t="n">
-        <v>24.90635867458548</v>
+        <v>24.90635867458549</v>
       </c>
       <c r="L44" t="n">
-        <v>30.89854030670989</v>
+        <v>30.8985403067099</v>
       </c>
       <c r="M44" t="n">
-        <v>34.38057960255736</v>
+        <v>34.38057960255738</v>
       </c>
       <c r="N44" t="n">
         <v>34.93689332431609</v>
       </c>
       <c r="O44" t="n">
-        <v>32.98991767249441</v>
+        <v>32.98991767249444</v>
       </c>
       <c r="P44" t="n">
-        <v>28.15613148475367</v>
+        <v>28.15613148475368</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.14408215418289</v>
+        <v>21.1440821541829</v>
       </c>
       <c r="R44" t="n">
-        <v>12.2993547996221</v>
+        <v>12.29935479962211</v>
       </c>
       <c r="S44" t="n">
-        <v>4.461768212785524</v>
+        <v>4.461768212785526</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8571098344034502</v>
+        <v>0.8571098344034507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01566391473495739</v>
+        <v>0.0156639147349574</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.10476166558881</v>
+        <v>0.1047616655888101</v>
       </c>
       <c r="H45" t="n">
-        <v>1.011777138712981</v>
+        <v>1.011777138712982</v>
       </c>
       <c r="I45" t="n">
-        <v>3.606925766983153</v>
+        <v>3.606925766983155</v>
       </c>
       <c r="J45" t="n">
-        <v>9.897679993195428</v>
+        <v>9.897679993195432</v>
       </c>
       <c r="K45" t="n">
         <v>16.91671158764569</v>
       </c>
       <c r="L45" t="n">
-        <v>22.74660638146509</v>
+        <v>22.74660638146511</v>
       </c>
       <c r="M45" t="n">
         <v>26.54421675905945</v>
       </c>
       <c r="N45" t="n">
-        <v>27.24676319188967</v>
+        <v>27.2467631918897</v>
       </c>
       <c r="O45" t="n">
         <v>24.92546523331657</v>
@@ -34469,16 +34469,16 @@
         <v>13.37273471621373</v>
       </c>
       <c r="R45" t="n">
-        <v>6.504412886294718</v>
+        <v>6.504412886294721</v>
       </c>
       <c r="S45" t="n">
-        <v>1.945901990213203</v>
+        <v>1.945901990213204</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4222630292812123</v>
+        <v>0.4222630292812125</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006892214841369085</v>
+        <v>0.006892214841369088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08782866125722785</v>
+        <v>0.08782866125722789</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7808766428142627</v>
+        <v>0.7808766428142632</v>
       </c>
       <c r="I46" t="n">
-        <v>2.641247376717362</v>
+        <v>2.641247376717363</v>
       </c>
       <c r="J46" t="n">
-        <v>6.209486350886009</v>
+        <v>6.209486350886012</v>
       </c>
       <c r="K46" t="n">
-        <v>10.20409355333974</v>
+        <v>10.20409355333975</v>
       </c>
       <c r="L46" t="n">
         <v>13.05772660182459</v>
@@ -34542,22 +34542,22 @@
         <v>12.41418204752163</v>
       </c>
       <c r="P46" t="n">
-        <v>10.62247735787417</v>
+        <v>10.62247735787418</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.354452716730234</v>
+        <v>7.354452716730238</v>
       </c>
       <c r="R46" t="n">
-        <v>3.94909598707499</v>
+        <v>3.949095987074991</v>
       </c>
       <c r="S46" t="n">
-        <v>1.530614033000961</v>
+        <v>1.530614033000962</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3752679162808826</v>
+        <v>0.3752679162808827</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004790654250394252</v>
+        <v>0.004790654250394254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="D11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="J11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="K11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35434,19 +35434,19 @@
         <v>0.8805623845911441</v>
       </c>
       <c r="S11" t="n">
-        <v>2.388942856243911</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="T11" t="n">
-        <v>3.407168619396566</v>
+        <v>2.38894285624392</v>
       </c>
       <c r="U11" t="n">
-        <v>3.407168619396566</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="V11" t="n">
-        <v>3.407168619396566</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.407168619396517</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="D14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="J14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="K14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.048371512789402</v>
+        <v>1.048371512789515</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8805623845909736</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.388942856244195</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="U14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.269505240835213</v>
       </c>
       <c r="V14" t="n">
-        <v>3.40716861939677</v>
+        <v>3.407168619396696</v>
       </c>
       <c r="W14" t="n">
-        <v>3.40716861939677</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.73708509684428</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="D17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,52 +35878,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.786887257482078</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.161440224975024</v>
       </c>
       <c r="K17" t="n">
-        <v>8.345965193997984</v>
+        <v>9.264131701183487</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.071731582930624</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.144445954547294</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.08410508694493</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.901117082893904</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.976636826348852</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="T17" t="n">
-        <v>15.51268673371851</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="U17" t="n">
-        <v>16.1658524909277</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1658524909277</v>
+        <v>16.16585249092776</v>
       </c>
       <c r="W17" t="n">
-        <v>16.1658524909277</v>
+        <v>4.078021717561057</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.5351416137307297</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.45828849835743</v>
+        <v>20.45828849835794</v>
       </c>
       <c r="D20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,46 +36115,46 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.709188853778471</v>
+        <v>8.709188853778983</v>
       </c>
       <c r="J20" t="n">
-        <v>23.23863305101207</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>10.18643329747994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.994033179227074</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5.066747550843729</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.00640668324138</v>
+        <v>2.006406683241892</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.823418679190354</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.898938422645296</v>
+        <v>4.898938422645807</v>
       </c>
       <c r="S20" t="n">
-        <v>23.23863305101207</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>23.23863305101533</v>
       </c>
       <c r="V20" t="n">
-        <v>7.28811432766048</v>
+        <v>5.120113983384556</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>21.35554825400942</v>
       </c>
       <c r="D23" t="n">
-        <v>31.18626894985772</v>
+        <v>1.306948697990947</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>31.18626894985772</v>
       </c>
       <c r="K23" t="n">
-        <v>11.08369305313192</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.891292934879061</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.964007306495716</v>
+        <v>5.96400730649566</v>
       </c>
       <c r="O23" t="n">
-        <v>2.903666438893367</v>
+        <v>2.903666438893325</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.72067843484232</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>31.18626894985772</v>
       </c>
       <c r="T23" t="n">
-        <v>6.483220415514444</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>23.87193614037591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.35554825400936</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.08369305313192</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.891292934879061</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>5.964007306495716</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,28 +36613,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.720678434842284</v>
+        <v>3.720678434842341</v>
       </c>
       <c r="R26" t="n">
-        <v>5.796198178297232</v>
+        <v>5.796198178297288</v>
       </c>
       <c r="S26" t="n">
-        <v>7.325049892280504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>31.18626894985778</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="V26" t="n">
-        <v>31.18626894985778</v>
+        <v>31.18626894985772</v>
       </c>
       <c r="W26" t="n">
-        <v>26.81108068776689</v>
+        <v>1.011713624015442</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2.354702965679166</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.78847208159999</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>37.61550288143303</v>
+        <v>37.61550288143331</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,49 +36826,49 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10.03937243702103</v>
+        <v>10.03937243702131</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>38.25904950994864</v>
       </c>
       <c r="K29" t="n">
-        <v>11.51661688072249</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.324216762469632</v>
+        <v>4.324216762469916</v>
       </c>
       <c r="N29" t="n">
-        <v>6.396931134086287</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3.336590266484222</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4.153602262433196</v>
       </c>
       <c r="R29" t="n">
-        <v>6.229122005887859</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.25904950994864</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.16752930413675</v>
+        <v>34.36246836668796</v>
       </c>
       <c r="V29" t="n">
-        <v>36.02808399370605</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>27.24400451535752</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>12.31924096883989</v>
+        <v>12.3192409688399</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.12684085058703</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7.199555222203685</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37087,19 +37087,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.95622635055031</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.1901100421166</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>30.81994031987666</v>
       </c>
       <c r="V32" t="n">
         <v>36.83070808182345</v>
@@ -37282,7 +37282,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>20.96418433017806</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -37300,46 +37300,46 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.84199652513843</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.37171202863061</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>12.31924096883989</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.126840850586973</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>4.139214354601364</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.956226350550253</v>
+        <v>4.95622635055031</v>
       </c>
       <c r="R35" t="n">
-        <v>7.0317460940052</v>
+        <v>7.031746094005257</v>
       </c>
       <c r="S35" t="n">
-        <v>51.37171202863087</v>
+        <v>51.37171202863061</v>
       </c>
       <c r="T35" t="n">
-        <v>51.37171202863087</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>51.37171202863087</v>
+        <v>13.33157727899188</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.83070808182345</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -37522,7 +37522,7 @@
         <v>22.59109616971733</v>
       </c>
       <c r="D38" t="n">
-        <v>3.715965363772625</v>
+        <v>38.41812696955037</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.37171202863067</v>
+        <v>51.37171202863048</v>
       </c>
       <c r="K38" t="n">
-        <v>12.31924096883995</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>7.199555222203799</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37561,16 +37561,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.95622635055031</v>
+        <v>4.956226350550253</v>
       </c>
       <c r="R38" t="n">
-        <v>7.031746094005248</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.37171202863067</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>43.22009270790105</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.81013906101629</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>37.63716986084933</v>
+        <v>17.47349015770334</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>11.53828386013879</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.418598113502583</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.358257245900234</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,22 +37801,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.250788985304155</v>
       </c>
       <c r="S41" t="n">
-        <v>38.11577144408602</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>38.61302815709846</v>
       </c>
       <c r="V41" t="n">
-        <v>36.04975097312234</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.26567149477381</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.37721523342589</v>
+        <v>21.37721523342555</v>
       </c>
       <c r="D44" t="n">
-        <v>31.54024759701537</v>
+        <v>31.54024759701093</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,49 +38011,49 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.628115588846924</v>
+        <v>9.628115588846583</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.10536003254839</v>
+        <v>11.10536003254806</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.912959914295186</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.925333418309492</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.742345414258807</v>
+        <v>3.742345414258466</v>
       </c>
       <c r="R44" t="n">
-        <v>5.817865157713754</v>
+        <v>5.817865157713413</v>
       </c>
       <c r="S44" t="n">
-        <v>17.57290826262871</v>
+        <v>31.54024759701093</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>31.54024759701093</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.027115000198946</v>
       </c>
       <c r="V44" t="n">
-        <v>31.54024759701537</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>26.83274766718341</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
